--- a/src/МакетMyShop.xlsx
+++ b/src/МакетMyShop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Стартовая страница" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <sheet name="Каталог товаров" sheetId="9" r:id="rId10"/>
     <sheet name="Любая страница из каталога" sheetId="10" r:id="rId11"/>
     <sheet name="Подробнее о товаре" sheetId="13" r:id="rId12"/>
-    <sheet name="Отзывы" sheetId="14" r:id="rId13"/>
-    <sheet name="Оставить отзыв" sheetId="15" r:id="rId14"/>
-    <sheet name="Корзина" sheetId="16" r:id="rId15"/>
-    <sheet name="Оформить заказ" sheetId="17" r:id="rId16"/>
-    <sheet name="Перейти к оплате" sheetId="18" r:id="rId17"/>
-    <sheet name="Оплатить" sheetId="19" r:id="rId18"/>
+    <sheet name="Добавить товар в корзину" sheetId="23" r:id="rId13"/>
+    <sheet name="Отзывы" sheetId="14" r:id="rId14"/>
+    <sheet name="Оставить отзыв" sheetId="15" r:id="rId15"/>
+    <sheet name="Корзина" sheetId="16" r:id="rId16"/>
+    <sheet name="Оформить заказ" sheetId="17" r:id="rId17"/>
+    <sheet name="Перейти к оплате" sheetId="18" r:id="rId18"/>
+    <sheet name="Оплатить" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="156">
   <si>
     <t>Дата рождения</t>
   </si>
@@ -629,6 +630,15 @@
   </si>
   <si>
     <t>Данные успешно сохранены!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая стоимость </t>
+  </si>
+  <si>
+    <t>Общая стоимость</t>
+  </si>
+  <si>
+    <t>Товар добавлен в корзину!</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1087,6 +1097,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,6 +1226,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,17 +1244,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1558,16 +1569,16 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1580,28 +1591,28 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -1629,8 +1640,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -1651,8 +1662,8 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -1884,7 +1895,7 @@
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B2:I5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,14 +1924,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1946,16 +1957,16 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -2269,8 +2280,8 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,10 +2298,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -2304,14 +2315,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2337,16 +2348,16 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
@@ -2392,76 +2403,76 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="82"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -2528,76 +2539,76 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -2673,8 +2684,8 @@
   </sheetPr>
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,14 +2719,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2742,154 +2753,154 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="82"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="84"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="84"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="84"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="84"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="87"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="84"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="87"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="86"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -2905,12 +2916,12 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
     </row>
@@ -3074,12 +3085,12 @@
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="63"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
     </row>
@@ -3106,12 +3117,349 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF660066"/>
   </sheetPr>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
@@ -3501,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3558,27 +3906,27 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -3592,12 +3940,12 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3613,12 +3961,12 @@
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
     </row>
@@ -3853,15 +4201,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,14 +4242,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -3938,7 +4286,7 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="6"/>
@@ -3956,7 +4304,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="72"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -3966,7 +4314,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="73"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -3996,7 +4344,7 @@
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D13" s="6"/>
@@ -4014,7 +4362,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="72"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -4024,7 +4372,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="73"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -4054,7 +4402,7 @@
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D18" s="6"/>
@@ -4072,7 +4420,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -4082,7 +4430,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="73"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -4112,7 +4460,7 @@
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D23" s="6"/>
@@ -4130,7 +4478,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="72"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -4140,7 +4488,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="73"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -4195,12 +4543,12 @@
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="63"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
     </row>
@@ -4238,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -4258,10 +4606,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -4275,14 +4623,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -4310,12 +4658,12 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
     </row>
@@ -4353,14 +4701,14 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="94">
+      <c r="C11" s="100">
         <v>2205202014789</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -4397,14 +4745,14 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="59"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -4441,14 +4789,14 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="62"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -4491,14 +4839,14 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="59"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="7"/>
       <c r="L23" s="51"/>
       <c r="M23" s="12"/>
@@ -4584,12 +4932,12 @@
     <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="63"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
     </row>
@@ -4645,22 +4993,22 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C27:H27"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4680,10 +5028,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -4697,14 +5045,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -4742,12 +5090,12 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
@@ -4795,13 +5143,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="59"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
     </row>
@@ -4839,10 +5187,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -4970,12 +5318,12 @@
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="63"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
     </row>
@@ -5023,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -5047,10 +5395,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="88"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -5064,14 +5412,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -5108,14 +5456,14 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -5128,16 +5476,16 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -5174,12 +5522,12 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
     </row>
@@ -5435,28 +5783,28 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
@@ -5484,8 +5832,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -5516,8 +5864,8 @@
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
@@ -5548,8 +5896,8 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
@@ -5580,10 +5928,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
@@ -5614,10 +5962,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -5648,8 +5996,8 @@
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
@@ -5678,10 +6026,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
@@ -5766,40 +6114,40 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
@@ -5824,12 +6172,12 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
@@ -5847,10 +6195,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -6111,28 +6459,28 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="22"/>
@@ -6264,14 +6612,14 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="65"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -6441,7 +6789,7 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B17" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -6463,7 +6811,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="6"/>
@@ -6475,7 +6823,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="72"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -6485,7 +6833,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="72"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -6495,7 +6843,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="73"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6607,10 +6955,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -6641,10 +6989,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -6848,16 +7196,16 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -6885,10 +7233,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="65"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
@@ -6919,10 +7267,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
@@ -6953,10 +7301,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -6987,10 +7335,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="76">
+      <c r="E15" s="79">
         <v>32260</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
@@ -7021,10 +7369,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
@@ -7055,10 +7403,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="59"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
@@ -7087,10 +7435,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -7200,7 +7548,7 @@
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -7230,14 +7578,14 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="65"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -7285,12 +7633,12 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
     </row>
@@ -7540,8 +7888,8 @@
   </sheetPr>
   <dimension ref="B2:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7583,14 +7931,14 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="40"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -7633,18 +7981,18 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -7689,6 +8037,9 @@
       <c r="H11" s="29" t="s">
         <v>70</v>
       </c>
+      <c r="I11" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
     </row>
@@ -7705,6 +8056,9 @@
       <c r="H12" s="29" t="s">
         <v>70</v>
       </c>
+      <c r="I12" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
     </row>
@@ -7721,6 +8075,9 @@
       <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
+      <c r="I13" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
     </row>
@@ -7736,6 +8093,9 @@
       </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -7747,10 +8107,9 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="29" t="s">
+      <c r="I15" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
     </row>
@@ -7797,7 +8156,9 @@
       <c r="H18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
     </row>
@@ -7812,7 +8173,9 @@
       <c r="H19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
     </row>
@@ -7829,7 +8192,9 @@
       <c r="H20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
     </row>
@@ -7846,7 +8211,9 @@
       <c r="H21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
@@ -7857,10 +8224,10 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="29"/>
+      <c r="I22" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
     </row>
@@ -7907,7 +8274,9 @@
       <c r="H25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
     </row>
@@ -7924,7 +8293,9 @@
       <c r="H26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
     </row>
@@ -7941,7 +8312,9 @@
       <c r="H27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
     </row>
@@ -7958,7 +8331,9 @@
       <c r="H28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="29" t="s">
+        <v>153</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
     </row>
@@ -7969,10 +8344,10 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
     </row>
@@ -8015,7 +8390,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8029,8 +8404,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8040,6 +8415,8 @@
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8057,7 +8434,8 @@
       <c r="F2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -8066,18 +8444,20 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -8088,7 +8468,8 @@
       <c r="D5" s="16"/>
       <c r="E5" s="6"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -8096,7 +8477,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -8104,17 +8486,19 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="100"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -8122,7 +8506,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -8130,7 +8515,8 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -8148,8 +8534,11 @@
       <c r="F11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="29" t="s">
         <v>70</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8162,8 +8551,11 @@
       <c r="F12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="29" t="s">
         <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -8177,8 +8569,11 @@
       <c r="F13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="29" t="s">
         <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8191,8 +8586,11 @@
       <c r="F14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="29" t="s">
         <v>70</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8201,7 +8599,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="101" t="s">
+      <c r="H15" s="53" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8211,25 +8609,28 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>147</v>
       </c>
@@ -8245,11 +8646,14 @@
       <c r="F19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -8259,11 +8663,14 @@
       <c r="F20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -8273,11 +8680,14 @@
       <c r="F21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -8287,45 +8697,52 @@
       <c r="F22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>147</v>
       </c>
@@ -8341,11 +8758,14 @@
       <c r="F27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -8355,11 +8775,14 @@
       <c r="F28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -8369,11 +8792,14 @@
       <c r="F29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="101" t="s">
+      <c r="G29" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -8383,27 +8809,32 @@
       <c r="F30" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="101" t="s">
+      <c r="G30" s="29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="101" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/МакетMyShop.xlsx
+++ b/src/МакетMyShop.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лёлька\source\repos\MyShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\MySuperShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Стартовая страница" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Оформить заказ" sheetId="17" r:id="rId17"/>
     <sheet name="Перейти к оплате" sheetId="18" r:id="rId18"/>
     <sheet name="Оплатить" sheetId="19" r:id="rId19"/>
+    <sheet name="Лист1" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="164">
   <si>
     <t>Дата рождения</t>
   </si>
@@ -639,6 +640,30 @@
   </si>
   <si>
     <t>Товар добавлен в корзину!</t>
+  </si>
+  <si>
+    <t>Текущий заказ</t>
+  </si>
+  <si>
+    <t>Каталог товаров?</t>
+  </si>
+  <si>
+    <t>Любая страница  из каталога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подробнее о товаре </t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>Оплата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Артикул товара</t>
   </si>
 </sst>
 </file>
@@ -762,12 +787,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -1004,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,6 +1275,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2280,7 +2312,7 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2684,8 +2716,8 @@
   </sheetPr>
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I5"/>
+    <sheetView topLeftCell="A15" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A35" sqref="A28:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,8 +3491,8 @@
   </sheetPr>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,7 +3889,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+      <selection activeCell="C6" sqref="C6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,7 +4240,7 @@
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4593,8 +4625,8 @@
   </sheetPr>
   <dimension ref="B2:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:H11"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,8 +5047,8 @@
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,7 +5766,7 @@
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
@@ -6086,6 +6118,81 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E19:F19"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="103"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="103"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="103"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="103"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="103"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6787,9 +6894,9 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -7136,7 +7243,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -7146,7 +7253,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -7155,6 +7262,11 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7886,22 +7998,22 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:P32"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7910,52 +8022,56 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J3" s="9"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="73"/>
       <c r="G4" s="73"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J4" s="73"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -7965,10 +8081,11 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -7978,9 +8095,10 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="55" t="s">
         <v>144</v>
       </c>
@@ -7992,9 +8110,10 @@
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -8004,9 +8123,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -8016,9 +8136,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>147</v>
       </c>
@@ -8028,92 +8149,105 @@
       <c r="D11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="I11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="J12" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="I14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="J14" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="29" t="s">
+      <c r="H15" s="6"/>
+      <c r="J15" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -8123,9 +8257,10 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -8135,9 +8270,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>147</v>
       </c>
@@ -8147,91 +8283,104 @@
       <c r="D18" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="I18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="J18" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="I19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="J19" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="I20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="J20" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="I21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="J21" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -8241,9 +8390,10 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -8253,9 +8403,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>147</v>
       </c>
@@ -8265,93 +8416,106 @@
       <c r="D25" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="I25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="J25" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="I26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="J26" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="I27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="J27" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="I28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="J28" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -8361,9 +8525,10 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -8373,9 +8538,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -8385,12 +8551,13 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8404,7 +8571,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
